--- a/ICB Template.xlsx
+++ b/ICB Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/Data Bricks Templates and Outputs/Template archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{D42CEB04-2FBF-424C-8EFB-05E35CBEB40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FD04744-DD26-4398-AC74-851914656060}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{D42CEB04-2FBF-424C-8EFB-05E35CBEB40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77BF6E58-F311-4C22-8E58-BF171A6CC280}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="2" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="1" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>Period:</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Diverted Requests</t>
-  </si>
-  <si>
-    <t>england.outpatient-transformation@nhs.net</t>
   </si>
   <si>
     <t xml:space="preserve">Coverage: </t>
@@ -207,78 +204,6 @@
     <t>Source Data &amp; Defintions</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Data source </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Monthly specialist advice activity returns are collected from Integrated Care Boards (ICBs) as part of the System Elective Recovery Outpatient Collection (System EROC). 
-The System EROC includes any or all recorded clinical dialogue that facilitates the seeking and/or provision of specialist advice prior to, or instead of a referral to secondary care, where that advice is expected to support a referrer to manage a patient without the need for an unnecessary outpatient appointment. Please note, interactions about patients as part of the ongoing validation of waiting list activities is not included in this collection.
-Submissions represent a co-ordinated, aggregate position across Integrated Boards (ICBs). The methodology requests that submissions only include activity where the first request was raised by an organisation within the ICB. This can, however, include requests directed to organisations beyond the ICBs geographical footprint, this approach means that we have a national picture of activity underway in England. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Data definitions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-The information relating to status and outcomes is used to define the key reporting measures used by NHS England: 
-   - Total Requests: number of specialist advice requests raised.
-   - Processed Requests: The number of specialist advice requests that have been received and responded to. This does not include those that are open or in need of     redirection at source.
-   - Diverted Requests: The total number of specialist advice requests that have been 'Processed' i.e. received and responded to and 'returned to referrer with advice' where it is expected that the advice 
-diverted a referral.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Specialty categorisation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-In this published management information, the specialty level data are aggregated to highlight those in, and out of, scope of the elective recovery fund (ERF). 
-Specialty level activity is reported by treatment function code (TFC). The following TFCs are out of scope of the ERF: </t>
-    </r>
-  </si>
-  <si>
     <t>Obstetrics</t>
   </si>
   <si>
@@ -402,6 +327,49 @@
   </si>
   <si>
     <t>TBC</t>
+  </si>
+  <si>
+    <t>england.electivepmo@nhs.net</t>
+  </si>
+  <si>
+    <t>a) Total Requests | Other Types of Specialist Advice</t>
+  </si>
+  <si>
+    <t>b) Processed Requests | Other Types of Specialist Advice</t>
+  </si>
+  <si>
+    <t>c) Diverted Requests | Other Types of Specialist Advice</t>
+  </si>
+  <si>
+    <t>Data definitions</t>
+  </si>
+  <si>
+    <t>Specialty categorisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data source 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly specialist advice activity returns are collected from Integrated Care Boards (ICBs) as part of the System Elective Recovery Outpatient Collection (System EROC). 
+The System EROC includes any or all recorded clinical dialogue that facilitates the seeking and/or provision of specialist advice prior to, or instead of a referral to secondary care, where that advice is expected to support a referrer to manage a patient without the need for an unnecessary outpatient appointment. Please note, interactions about patients as part of the ongoing validation of waiting list activities is not included in this collection.
+Submissions represent a co-ordinated, aggregate position across Integrated Boards (ICBs). The methodology requests that submissions only include activity where the first request was raised by an organisation within the ICB. This can, however, include requests directed to organisations beyond the ICBs geographical footprint, this approach means that we have a national picture of activity underway in England. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>The information relating to status and outcomes is used to define the key reporting measures used by NHS England: 
+ - Total Requests: number of specialist advice requests raised.
+ - Processed Requests: The number of specialist advice requests that have been received and responded to. This does not include those that are open or in need of redirection at source.
+ - Diverted Requests: The total number of specialist advice requests that have been 'Processed' i.e. received and responded to and 'returned to referrer with advice' where it is expected that the advice diverted a referral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this published management information, the specialty level data are aggregated to highlight those in, and out of, scope of the elective recovery fund (ERF). 
+Specialty level activity is reported by treatment function code (TFC). The following TFCs are out of scope of the ERF: </t>
   </si>
 </sst>
 </file>
@@ -700,7 +668,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -866,30 +834,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -901,16 +845,55 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1272,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -1303,7 +1286,7 @@
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -1314,7 +1297,7 @@
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="67"/>
@@ -1322,64 +1305,64 @@
     <row r="8" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="45"/>
       <c r="C8" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,22 +1371,22 @@
     <row r="23" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,467 +1426,526 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="B1:J50"/>
+  <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="32"/>
     <col min="2" max="3" width="11.140625" style="33" customWidth="1"/>
     <col min="4" max="4" width="52.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="94" style="32" customWidth="1"/>
+    <col min="5" max="5" width="96.42578125" style="32" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-    </row>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="2:10" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="2:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="51" t="s">
+    <row r="1" spans="2:13" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+    </row>
+    <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="2:13" s="86" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="2:13" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="2:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="2:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="32"/>
+      <c r="C10" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="52">
-        <v>501</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="52">
-        <v>560</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
-      <c r="C8" s="52">
-        <v>700</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
-      <c r="C9" s="52">
-        <v>710</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
-      <c r="C10" s="52">
-        <v>711</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>60</v>
-      </c>
       <c r="E10" s="36"/>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32"/>
       <c r="C11" s="52">
-        <v>712</v>
+        <v>501</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E11" s="36"/>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="52">
-        <v>713</v>
+        <v>560</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="C13" s="52">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E13" s="36"/>
     </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="52">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E14" s="36"/>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
       <c r="C15" s="52">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32"/>
       <c r="C16" s="52">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="32"/>
       <c r="C17" s="52">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="32"/>
       <c r="C18" s="52">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
       <c r="C19" s="52">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="32"/>
       <c r="C20" s="52">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E20" s="36"/>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
       <c r="C21" s="52">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21" s="36"/>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="32"/>
       <c r="C22" s="52">
+        <v>723</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="32"/>
+      <c r="C23" s="52">
+        <v>724</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="32"/>
+      <c r="C24" s="52">
+        <v>725</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="32"/>
+      <c r="C25" s="52">
+        <v>726</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="32"/>
+      <c r="C26" s="52">
+        <v>727</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="32"/>
+      <c r="C27" s="52">
         <v>812</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D27" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="36"/>
+    </row>
+    <row r="28" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="32"/>
+      <c r="C28" s="53">
+        <v>199</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="32"/>
+      <c r="C29" s="53">
+        <v>499</v>
+      </c>
+      <c r="D29" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="2:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="53">
-        <v>199</v>
-      </c>
-      <c r="D23" s="53" t="s">
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B31" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+    </row>
+    <row r="33" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+    </row>
+    <row r="34" spans="2:5" s="33" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+    </row>
+    <row r="35" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+    </row>
+    <row r="36" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+    </row>
+    <row r="37" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+    </row>
+    <row r="38" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+    </row>
+    <row r="39" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+    </row>
+    <row r="40" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+    </row>
+    <row r="42" spans="2:5" s="33" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+    </row>
+    <row r="43" spans="2:5" s="33" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+    </row>
+    <row r="44" spans="2:5" s="34" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+    </row>
+    <row r="45" spans="2:5" s="33" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+    </row>
+    <row r="48" spans="2:5" s="33" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+    </row>
+    <row r="49" spans="2:5" s="33" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="2:5" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="32"/>
-      <c r="C24" s="53">
-        <v>499</v>
-      </c>
-      <c r="D24" s="53" t="s">
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+    </row>
+    <row r="52" spans="2:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-    </row>
-    <row r="28" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-    </row>
-    <row r="29" spans="2:5" s="33" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-    </row>
-    <row r="30" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-    </row>
-    <row r="31" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-    </row>
-    <row r="32" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-    </row>
-    <row r="33" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-    </row>
-    <row r="35" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-    </row>
-    <row r="36" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-    </row>
-    <row r="37" spans="2:5" s="33" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-    </row>
-    <row r="38" spans="2:5" s="33" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-    </row>
-    <row r="39" spans="2:5" s="34" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-    </row>
-    <row r="40" spans="2:5" s="33" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-    </row>
-    <row r="43" spans="2:5" s="33" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-    </row>
-    <row r="44" spans="2:5" s="33" customFormat="1" ht="103.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-    </row>
-    <row r="47" spans="2:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-    </row>
-    <row r="50" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B34:E34"/>
+  <mergeCells count="29">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B47:E47" r:id="rId1" display="For further information about the published management information relating to outpatient recovery and transformation, please contact us at england.outpatient-transformation@nhs.net.  " xr:uid="{4F3CE27B-A76B-4329-82B4-2E3155002187}"/>
+    <hyperlink ref="B52:E52" r:id="rId1" display="For further information about the published management information relating to outpatient recovery and transformation, please contact us at england.outpatient-transformation@nhs.net.  " xr:uid="{4F3CE27B-A76B-4329-82B4-2E3155002187}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -1917,7 +1959,7 @@
   </sheetPr>
   <dimension ref="B1:BZ157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1934,7 +1976,7 @@
     </row>
     <row r="2" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1942,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1966,15 +2008,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>8</v>
+      <c r="C7" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1983,31 +2025,31 @@
     </row>
     <row r="9" spans="2:69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="2:69" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
@@ -2015,7 +2057,7 @@
     </row>
     <row r="12" spans="2:69" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="24"/>
@@ -2058,7 +2100,7 @@
     </row>
     <row r="13" spans="2:69" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="25"/>
@@ -5554,7 +5596,7 @@
     </row>
     <row r="61" spans="2:78" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AO61" s="65"/>
       <c r="AP61" s="65"/>
@@ -5571,7 +5613,7 @@
     </row>
     <row r="62" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO62" s="65"/>
       <c r="AP62" s="65"/>
@@ -8952,7 +8994,7 @@
     </row>
     <row r="109" spans="2:78" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D109" s="54"/>
       <c r="E109" s="54"/>
@@ -9006,7 +9048,7 @@
     </row>
     <row r="110" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO110" s="65"/>
       <c r="AP110" s="65"/>
@@ -12422,8 +12464,11 @@
       <formula>"TBC"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{FCA05C57-408C-4913-BEE2-573029AC359C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12434,9 +12479,7 @@
   </sheetPr>
   <dimension ref="B1:BZ155"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12453,7 +12496,7 @@
     </row>
     <row r="2" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12461,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12469,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12486,15 +12529,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>8</v>
+      <c r="C7" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12503,31 +12546,31 @@
     </row>
     <row r="9" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="2:40" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
@@ -12535,7 +12578,7 @@
     </row>
     <row r="12" spans="2:40" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="26"/>
@@ -12578,7 +12621,7 @@
     </row>
     <row r="13" spans="2:40" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
@@ -14693,12 +14736,12 @@
     </row>
     <row r="61" spans="2:78" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:78" ht="15" x14ac:dyDescent="0.2">
@@ -16772,12 +16815,12 @@
     </row>
     <row r="109" spans="2:78" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="2:78" ht="15" x14ac:dyDescent="0.2">
@@ -18860,6 +18903,9 @@
       <formula>"TBC"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{3C8AC25D-52A8-4912-83D5-DC4CAC5BC5F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18871,9 +18917,7 @@
   </sheetPr>
   <dimension ref="B1:BZ157"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18890,7 +18934,7 @@
     </row>
     <row r="2" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18898,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18906,7 +18950,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18923,15 +18967,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>8</v>
+      <c r="C7" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:40" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18940,31 +18984,31 @@
     </row>
     <row r="9" spans="2:40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="2:40" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="2:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
@@ -18972,7 +19016,7 @@
     </row>
     <row r="12" spans="2:40" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="26"/>
@@ -19015,7 +19059,7 @@
     </row>
     <row r="13" spans="2:40" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="27"/>
@@ -21130,12 +21174,12 @@
     </row>
     <row r="61" spans="2:78" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:78" ht="15" x14ac:dyDescent="0.2">
@@ -23212,13 +23256,13 @@
     </row>
     <row r="109" spans="2:78" s="55" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B109" s="57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C109" s="56"/>
     </row>
     <row r="110" spans="2:78" s="55" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C110" s="56"/>
     </row>
@@ -25310,6 +25354,9 @@
       <formula>"TBC"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{D5EAB4D6-B101-4BA2-ACA0-E0B9C7623757}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25321,9 +25368,7 @@
   </sheetPr>
   <dimension ref="B1:BZ157"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25340,7 +25385,7 @@
     </row>
     <row r="2" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25348,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25356,7 +25401,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25373,15 +25418,15 @@
         <v>3</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>8</v>
+      <c r="C7" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:69" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -25390,31 +25435,31 @@
     </row>
     <row r="9" spans="2:69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="2:69" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
@@ -25422,7 +25467,7 @@
     </row>
     <row r="12" spans="2:69" s="7" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="24"/>
@@ -25465,7 +25510,7 @@
     </row>
     <row r="13" spans="2:69" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="25"/>
@@ -28961,7 +29006,7 @@
     </row>
     <row r="61" spans="2:78" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="AO61" s="65"/>
       <c r="AP61" s="65"/>
@@ -28978,7 +29023,7 @@
     </row>
     <row r="62" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO62" s="65"/>
       <c r="AP62" s="65"/>
@@ -32359,7 +32404,7 @@
     </row>
     <row r="109" spans="2:78" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="D109" s="54"/>
       <c r="E109" s="54"/>
@@ -32413,7 +32458,7 @@
     </row>
     <row r="110" spans="2:78" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AO110" s="65"/>
       <c r="AP110" s="65"/>
@@ -35829,12 +35874,24 @@
       <formula>"TBC"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{AC674380-07FB-4F0E-9B38-893A930BD12D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000611BC576570B445AD683FFF8493BECF" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f98cbd5f5efdf85b388a7f4f496b5c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30dd1bc9-520c-4869-8c8c-9a8c02d447dc" xmlns:ns3="cb757152-6290-4f10-9526-458cf73e4534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d01b020bb47f93ef4b15ba88ec310de" ns2:_="" ns3:_="">
     <xsd:import namespace="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
@@ -36047,15 +36104,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -36070,6 +36118,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4647CEDD-A151-4527-B6A3-D038D9F28698}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -36084,14 +36140,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
